--- a/backend/analysis/annotations/test_files/sample_16_SAF_corrected.xlsx
+++ b/backend/analysis/annotations/test_files/sample_16_SAF_corrected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jodijk\Dropbox\jodijk\Utrecht\Projects\SASTAtesting\astamodannsheet\2022-03-25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/3248526/git/sasta/backend/analysis/annotations/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C52812-B963-4C96-B7F6-DFD2B66C26C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F0C21C-1AE0-B546-8122-590A3396E1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="187">
   <si>
     <t>ID</t>
   </si>
@@ -665,12 +665,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,18 +976,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X323"/>
+  <dimension ref="A1:X330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="E331" sqref="E331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="24" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1124,7 +1127,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -1245,7 +1248,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -1342,7 +1345,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -1443,7 +1446,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>5</v>
       </c>
@@ -1542,7 +1545,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>6</v>
       </c>
@@ -1639,7 +1642,7 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>6</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>6</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>7</v>
       </c>
@@ -1757,7 +1760,7 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>7</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>8</v>
       </c>
@@ -1885,7 +1888,7 @@
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>8</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>8</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>8</v>
       </c>
@@ -1924,7 +1927,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>8</v>
       </c>
@@ -1932,7 +1935,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>8</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>8</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>9</v>
       </c>
@@ -1994,7 +1997,7 @@
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>9</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>9</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>9</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>9</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>9</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>9</v>
       </c>
@@ -2051,7 +2054,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>10</v>
       </c>
@@ -2087,7 +2090,7 @@
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>10</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>10</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>10</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>11</v>
       </c>
@@ -2181,7 +2184,7 @@
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>11</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>11</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>11</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>11</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>11</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>11</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>12</v>
       </c>
@@ -2268,7 +2271,7 @@
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>12</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>12</v>
       </c>
@@ -2284,7 +2287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>12</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>12</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>12</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>12</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>13</v>
       </c>
@@ -2375,7 +2378,7 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>13</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>13</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>13</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>13</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>13</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>13</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>14</v>
       </c>
@@ -2478,7 +2481,7 @@
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>14</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>14</v>
       </c>
@@ -2497,7 +2500,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>14</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>14</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>14</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>14</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>15</v>
       </c>
@@ -2569,7 +2572,7 @@
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>15</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>15</v>
       </c>
@@ -2588,7 +2591,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>15</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>15</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>15</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>15</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>16</v>
       </c>
@@ -2665,7 +2668,7 @@
       <c r="W107" s="2"/>
       <c r="X107" s="2"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>16</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>16</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>16</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>16</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>16</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>16</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>17</v>
       </c>
@@ -2771,7 +2774,7 @@
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>17</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>17</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>17</v>
       </c>
@@ -2801,7 +2804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>17</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>17</v>
       </c>
@@ -2817,7 +2820,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>17</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>18</v>
       </c>
@@ -2877,7 +2880,7 @@
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>18</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>18</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>18</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>18</v>
       </c>
@@ -2921,7 +2924,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>18</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>18</v>
       </c>
@@ -2937,7 +2940,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>19</v>
       </c>
@@ -2991,7 +2994,7 @@
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>19</v>
       </c>
@@ -2999,7 +3002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>19</v>
       </c>
@@ -3007,7 +3010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>19</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>19</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>19</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>19</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>20</v>
       </c>
@@ -3110,7 +3113,7 @@
       <c r="W135" s="2"/>
       <c r="X135" s="2"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>20</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>20</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>20</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>20</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>20</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>20</v>
       </c>
@@ -3173,7 +3176,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>21</v>
       </c>
@@ -3217,7 +3220,7 @@
       <c r="W142" s="2"/>
       <c r="X142" s="2"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>21</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>21</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>21</v>
       </c>
@@ -3253,7 +3256,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>21</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>21</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>21</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>22</v>
       </c>
@@ -3315,7 +3318,7 @@
       <c r="W149" s="2"/>
       <c r="X149" s="2"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>22</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>22</v>
       </c>
@@ -3334,7 +3337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>22</v>
       </c>
@@ -3351,7 +3354,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>22</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>22</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>22</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>23</v>
       </c>
@@ -3425,7 +3428,7 @@
       <c r="W156" s="2"/>
       <c r="X156" s="2"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>23</v>
       </c>
@@ -3436,7 +3439,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>23</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>23</v>
       </c>
@@ -3464,7 +3467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>23</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>23</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>23</v>
       </c>
@@ -3488,7 +3491,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>24</v>
       </c>
@@ -3534,7 +3537,7 @@
       <c r="W163" s="2"/>
       <c r="X163" s="2"/>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>24</v>
       </c>
@@ -3542,7 +3545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>24</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>24</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>24</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>24</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>24</v>
       </c>
@@ -3594,7 +3597,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>25</v>
       </c>
@@ -3636,7 +3639,7 @@
       <c r="W170" s="2"/>
       <c r="X170" s="2"/>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>25</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>25</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>25</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>25</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>25</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>25</v>
       </c>
@@ -3696,7 +3699,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>26</v>
       </c>
@@ -3748,7 +3751,7 @@
       <c r="W177" s="2"/>
       <c r="X177" s="2"/>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>26</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>26</v>
       </c>
@@ -3776,7 +3779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>26</v>
       </c>
@@ -3790,7 +3793,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>26</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>26</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>26</v>
       </c>
@@ -3814,7 +3817,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>27</v>
       </c>
@@ -3848,7 +3851,7 @@
       <c r="W184" s="2"/>
       <c r="X184" s="2"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>27</v>
       </c>
@@ -3856,7 +3859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>27</v>
       </c>
@@ -3864,7 +3867,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>27</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>27</v>
       </c>
@@ -3883,7 +3886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>27</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>27</v>
       </c>
@@ -3899,7 +3902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>28</v>
       </c>
@@ -3943,7 +3946,7 @@
       <c r="W191" s="2"/>
       <c r="X191" s="2"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>28</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>28</v>
       </c>
@@ -3968,7 +3971,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>28</v>
       </c>
@@ -3982,7 +3985,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>28</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>28</v>
       </c>
@@ -3998,7 +4001,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>28</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>29</v>
       </c>
@@ -4066,7 +4069,7 @@
       <c r="W198" s="2"/>
       <c r="X198" s="2"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>29</v>
       </c>
@@ -4077,7 +4080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>29</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>29</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>29</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>29</v>
       </c>
@@ -4121,7 +4124,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>29</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>30</v>
       </c>
@@ -4165,7 +4168,7 @@
       <c r="W205" s="2"/>
       <c r="X205" s="2"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>30</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>30</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>30</v>
       </c>
@@ -4192,7 +4195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>30</v>
       </c>
@@ -4200,7 +4203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>30</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>30</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>31</v>
       </c>
@@ -4254,7 +4257,7 @@
       <c r="W212" s="2"/>
       <c r="X212" s="2"/>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>31</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>31</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>31</v>
       </c>
@@ -4287,7 +4290,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>31</v>
       </c>
@@ -4295,7 +4298,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>31</v>
       </c>
@@ -4303,7 +4306,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>31</v>
       </c>
@@ -4311,7 +4314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>32</v>
       </c>
@@ -4353,7 +4356,7 @@
       <c r="W219" s="2"/>
       <c r="X219" s="2"/>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>32</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>32</v>
       </c>
@@ -4369,7 +4372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>32</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>32</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>32</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>32</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>33</v>
       </c>
@@ -4452,7 +4455,7 @@
       <c r="W226" s="2"/>
       <c r="X226" s="2"/>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>33</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>33</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>33</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>33</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>33</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>33</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>34</v>
       </c>
@@ -4555,7 +4558,7 @@
       <c r="W233" s="2"/>
       <c r="X233" s="2"/>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>34</v>
       </c>
@@ -4563,7 +4566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>34</v>
       </c>
@@ -4571,7 +4574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>34</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>34</v>
       </c>
@@ -4596,7 +4599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>34</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>34</v>
       </c>
@@ -4612,7 +4615,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>35</v>
       </c>
@@ -4650,7 +4653,7 @@
       <c r="W240" s="2"/>
       <c r="X240" s="2"/>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>35</v>
       </c>
@@ -4658,7 +4661,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>35</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>35</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>35</v>
       </c>
@@ -4688,7 +4691,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>35</v>
       </c>
@@ -4696,7 +4699,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>35</v>
       </c>
@@ -4704,7 +4707,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>36</v>
       </c>
@@ -4746,7 +4749,7 @@
       <c r="W247" s="2"/>
       <c r="X247" s="2"/>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>36</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>36</v>
       </c>
@@ -4765,7 +4768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>36</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>36</v>
       </c>
@@ -4787,7 +4790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>36</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>36</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>37</v>
       </c>
@@ -4841,7 +4844,7 @@
       <c r="W254" s="2"/>
       <c r="X254" s="2"/>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>37</v>
       </c>
@@ -4852,7 +4855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>37</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>37</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>37</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>37</v>
       </c>
@@ -4884,7 +4887,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>37</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>38</v>
       </c>
@@ -4934,7 +4937,7 @@
       <c r="W261" s="2"/>
       <c r="X261" s="2"/>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>38</v>
       </c>
@@ -4942,7 +4945,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>38</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>38</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>38</v>
       </c>
@@ -4972,7 +4975,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>38</v>
       </c>
@@ -4980,7 +4983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>38</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>39</v>
       </c>
@@ -5020,7 +5023,7 @@
       <c r="W268" s="2"/>
       <c r="X268" s="2"/>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>39</v>
       </c>
@@ -5028,7 +5031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>39</v>
       </c>
@@ -5036,7 +5039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>39</v>
       </c>
@@ -5047,7 +5050,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>39</v>
       </c>
@@ -5055,7 +5058,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>39</v>
       </c>
@@ -5063,7 +5066,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>39</v>
       </c>
@@ -5071,7 +5074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>40</v>
       </c>
@@ -5109,7 +5112,7 @@
       <c r="W275" s="2"/>
       <c r="X275" s="2"/>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>40</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>40</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>40</v>
       </c>
@@ -5145,7 +5148,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>40</v>
       </c>
@@ -5153,7 +5156,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>40</v>
       </c>
@@ -5161,7 +5164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>40</v>
       </c>
@@ -5172,7 +5175,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>41</v>
       </c>
@@ -5212,7 +5215,7 @@
       <c r="W282" s="2"/>
       <c r="X282" s="2"/>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>41</v>
       </c>
@@ -5220,7 +5223,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>41</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>41</v>
       </c>
@@ -5242,7 +5245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>41</v>
       </c>
@@ -5250,7 +5253,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>41</v>
       </c>
@@ -5258,7 +5261,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>41</v>
       </c>
@@ -5266,7 +5269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>42</v>
       </c>
@@ -5304,7 +5307,7 @@
       <c r="W289" s="2"/>
       <c r="X289" s="2"/>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>42</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>42</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>42</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>42</v>
       </c>
@@ -5345,7 +5348,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>42</v>
       </c>
@@ -5353,7 +5356,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>42</v>
       </c>
@@ -5364,7 +5367,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>43</v>
       </c>
@@ -5372,41 +5375,21 @@
         <v>24</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G296" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H296" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I296" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J296" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K296" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L296" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M296" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N296" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="2"/>
+      <c r="I296" s="2"/>
+      <c r="J296" s="2"/>
+      <c r="K296" s="2"/>
+      <c r="L296" s="2"/>
+      <c r="M296" s="2"/>
+      <c r="N296" s="2"/>
       <c r="O296" s="2"/>
       <c r="P296" s="2"/>
       <c r="Q296" s="2"/>
@@ -5418,64 +5401,189 @@
       <c r="W296" s="2"/>
       <c r="X296" s="2"/>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>43</v>
       </c>
       <c r="B297" t="s">
         <v>41</v>
       </c>
-      <c r="N297" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5"/>
+      <c r="K297" s="5"/>
+      <c r="L297" s="5"/>
+      <c r="M297" s="5"/>
+      <c r="N297" s="5"/>
+      <c r="O297" s="5"/>
+      <c r="P297" s="5"/>
+      <c r="Q297" s="5"/>
+      <c r="R297" s="5"/>
+      <c r="S297" s="5"/>
+      <c r="T297" s="5"/>
+      <c r="U297" s="5"/>
+      <c r="V297" s="5"/>
+      <c r="W297" s="5"/>
+      <c r="X297" s="5"/>
+    </row>
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>43</v>
       </c>
       <c r="B298" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5"/>
+      <c r="K298" s="5"/>
+      <c r="L298" s="5"/>
+      <c r="M298" s="5"/>
+      <c r="N298" s="5"/>
+      <c r="O298" s="5"/>
+      <c r="P298" s="5"/>
+      <c r="Q298" s="5"/>
+      <c r="R298" s="5"/>
+      <c r="S298" s="5"/>
+      <c r="T298" s="5"/>
+      <c r="U298" s="5"/>
+      <c r="V298" s="5"/>
+      <c r="W298" s="5"/>
+      <c r="X298" s="5"/>
+    </row>
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>43</v>
       </c>
       <c r="B299" t="s">
         <v>44</v>
       </c>
-      <c r="E299" t="s">
-        <v>50</v>
-      </c>
-      <c r="H299" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C299" s="5"/>
+      <c r="D299" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+      <c r="K299" s="5"/>
+      <c r="L299" s="5"/>
+      <c r="M299" s="5"/>
+      <c r="N299" s="5"/>
+      <c r="O299" s="5"/>
+      <c r="P299" s="5"/>
+      <c r="Q299" s="5"/>
+      <c r="R299" s="5"/>
+      <c r="S299" s="5"/>
+      <c r="T299" s="5"/>
+      <c r="U299" s="5"/>
+      <c r="V299" s="5"/>
+      <c r="W299" s="5"/>
+      <c r="X299" s="5"/>
+    </row>
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>43</v>
       </c>
       <c r="B300" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="5"/>
+      <c r="J300" s="5"/>
+      <c r="K300" s="5"/>
+      <c r="L300" s="5"/>
+      <c r="M300" s="5"/>
+      <c r="N300" s="5"/>
+      <c r="O300" s="5"/>
+      <c r="P300" s="5"/>
+      <c r="Q300" s="5"/>
+      <c r="R300" s="5"/>
+      <c r="S300" s="5"/>
+      <c r="T300" s="5"/>
+      <c r="U300" s="5"/>
+      <c r="V300" s="5"/>
+      <c r="W300" s="5"/>
+      <c r="X300" s="5"/>
+    </row>
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>43</v>
       </c>
       <c r="B301" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
+      <c r="I301" s="5"/>
+      <c r="J301" s="5"/>
+      <c r="K301" s="5"/>
+      <c r="L301" s="5"/>
+      <c r="M301" s="5"/>
+      <c r="N301" s="5"/>
+      <c r="O301" s="5"/>
+      <c r="P301" s="5"/>
+      <c r="Q301" s="5"/>
+      <c r="R301" s="5"/>
+      <c r="S301" s="5"/>
+      <c r="T301" s="5"/>
+      <c r="U301" s="5"/>
+      <c r="V301" s="5"/>
+      <c r="W301" s="5"/>
+      <c r="X301" s="5"/>
+    </row>
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>43</v>
       </c>
       <c r="B302" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="5"/>
+      <c r="J302" s="5"/>
+      <c r="K302" s="5"/>
+      <c r="L302" s="5"/>
+      <c r="M302" s="5"/>
+      <c r="N302" s="5"/>
+      <c r="O302" s="5"/>
+      <c r="P302" s="5"/>
+      <c r="Q302" s="5"/>
+      <c r="R302" s="5"/>
+      <c r="S302" s="5"/>
+      <c r="T302" s="5"/>
+      <c r="U302" s="5"/>
+      <c r="V302" s="5"/>
+      <c r="W302" s="5"/>
+      <c r="X302" s="5"/>
+    </row>
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>44</v>
       </c>
@@ -5483,37 +5591,37 @@
         <v>24</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="H303" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I303" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J303" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K303" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L303" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I303" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J303" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K303" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L303" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="M303" s="2" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="N303" s="2" t="s">
         <v>26</v>
@@ -5529,61 +5637,40 @@
       <c r="W303" s="2"/>
       <c r="X303" s="2"/>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>44</v>
       </c>
       <c r="B304" t="s">
         <v>41</v>
       </c>
-      <c r="C304" t="s">
-        <v>42</v>
-      </c>
-      <c r="D304" t="s">
-        <v>42</v>
-      </c>
-      <c r="F304" t="s">
-        <v>42</v>
-      </c>
-      <c r="G304" t="s">
-        <v>42</v>
-      </c>
-      <c r="K304" t="s">
-        <v>42</v>
-      </c>
       <c r="N304" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>44</v>
       </c>
       <c r="B305" t="s">
         <v>43</v>
       </c>
-      <c r="E305" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>44</v>
       </c>
       <c r="B306" t="s">
         <v>44</v>
       </c>
-      <c r="I306" t="s">
-        <v>58</v>
-      </c>
-      <c r="L306" t="s">
-        <v>47</v>
-      </c>
-      <c r="M306" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E306" t="s">
+        <v>50</v>
+      </c>
+      <c r="H306" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>44</v>
       </c>
@@ -5591,7 +5678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>44</v>
       </c>
@@ -5599,7 +5686,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>44</v>
       </c>
@@ -5607,7 +5694,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>45</v>
       </c>
@@ -5615,44 +5702,42 @@
         <v>24</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E310" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F310" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F310" s="2" t="s">
+      <c r="G310" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H310" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G310" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H310" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="I310" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="K310" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L310" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M310" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N310" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O310" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="O310" s="2"/>
       <c r="P310" s="2"/>
       <c r="Q310" s="2"/>
       <c r="R310" s="2"/>
@@ -5663,61 +5748,61 @@
       <c r="W310" s="2"/>
       <c r="X310" s="2"/>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>45</v>
       </c>
       <c r="B311" t="s">
         <v>41</v>
       </c>
+      <c r="C311" t="s">
+        <v>42</v>
+      </c>
       <c r="D311" t="s">
         <v>42</v>
       </c>
-      <c r="E311" t="s">
-        <v>42</v>
-      </c>
-      <c r="H311" t="s">
+      <c r="F311" t="s">
+        <v>42</v>
+      </c>
+      <c r="G311" t="s">
         <v>42</v>
       </c>
       <c r="K311" t="s">
         <v>42</v>
       </c>
-      <c r="O311" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N311" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>45</v>
       </c>
       <c r="B312" t="s">
         <v>43</v>
       </c>
-      <c r="C312" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E312" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>45</v>
       </c>
       <c r="B313" t="s">
         <v>44</v>
       </c>
-      <c r="G313" t="s">
+      <c r="I313" t="s">
         <v>58</v>
       </c>
-      <c r="I313" t="s">
+      <c r="L313" t="s">
+        <v>47</v>
+      </c>
+      <c r="M313" t="s">
         <v>46</v>
       </c>
-      <c r="L313" t="s">
-        <v>46</v>
-      </c>
-      <c r="M313" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>45</v>
       </c>
@@ -5725,7 +5810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>45</v>
       </c>
@@ -5733,7 +5818,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>45</v>
       </c>
@@ -5741,7 +5826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>46</v>
       </c>
@@ -5749,7 +5834,7 @@
         <v>24</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>26</v>
@@ -5758,19 +5843,35 @@
         <v>26</v>
       </c>
       <c r="F317" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H317" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G317" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H317" s="2"/>
-      <c r="I317" s="2"/>
-      <c r="J317" s="2"/>
-      <c r="K317" s="2"/>
-      <c r="L317" s="2"/>
-      <c r="M317" s="2"/>
-      <c r="N317" s="2"/>
-      <c r="O317" s="2"/>
+      <c r="I317" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J317" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K317" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L317" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M317" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="N317" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O317" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="P317" s="2"/>
       <c r="Q317" s="2"/>
       <c r="R317" s="2"/>
@@ -5781,7 +5882,7 @@
       <c r="W317" s="2"/>
       <c r="X317" s="2"/>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>46</v>
       </c>
@@ -5794,30 +5895,48 @@
       <c r="E318" t="s">
         <v>42</v>
       </c>
-      <c r="F318" t="s">
-        <v>42</v>
-      </c>
-      <c r="G318" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H318" t="s">
+        <v>42</v>
+      </c>
+      <c r="K318" t="s">
+        <v>42</v>
+      </c>
+      <c r="O318" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>46</v>
       </c>
       <c r="B319" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C319" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>46</v>
       </c>
       <c r="B320" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G320" t="s">
+        <v>58</v>
+      </c>
+      <c r="I320" t="s">
+        <v>46</v>
+      </c>
+      <c r="L320" t="s">
+        <v>46</v>
+      </c>
+      <c r="M320" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>46</v>
       </c>
@@ -5825,7 +5944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>46</v>
       </c>
@@ -5833,11 +5952,111 @@
         <v>52</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>46</v>
       </c>
       <c r="B323" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A324" s="2">
+        <v>47</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H324" s="2"/>
+      <c r="I324" s="2"/>
+      <c r="J324" s="2"/>
+      <c r="K324" s="2"/>
+      <c r="L324" s="2"/>
+      <c r="M324" s="2"/>
+      <c r="N324" s="2"/>
+      <c r="O324" s="2"/>
+      <c r="P324" s="2"/>
+      <c r="Q324" s="2"/>
+      <c r="R324" s="2"/>
+      <c r="S324" s="2"/>
+      <c r="T324" s="2"/>
+      <c r="U324" s="2"/>
+      <c r="V324" s="2"/>
+      <c r="W324" s="2"/>
+      <c r="X324" s="2"/>
+    </row>
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>47</v>
+      </c>
+      <c r="B325" t="s">
+        <v>41</v>
+      </c>
+      <c r="D325" t="s">
+        <v>42</v>
+      </c>
+      <c r="E325" t="s">
+        <v>42</v>
+      </c>
+      <c r="F325" t="s">
+        <v>42</v>
+      </c>
+      <c r="G325" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>47</v>
+      </c>
+      <c r="B326" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>47</v>
+      </c>
+      <c r="B327" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>47</v>
+      </c>
+      <c r="B328" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>47</v>
+      </c>
+      <c r="B329" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>47</v>
+      </c>
+      <c r="B330" t="s">
         <v>53</v>
       </c>
     </row>
